--- a/Excel/ExclusiveAttrConfig.xlsx
+++ b/Excel/ExclusiveAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,9 @@
     <t>AttrValueList</t>
   </si>
   <si>
+    <t>AttchValueList</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -89,28 +92,46 @@
     <t>6,4,8</t>
   </si>
   <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
     <t>20,15,30</t>
   </si>
   <si>
+    <t>2,4,6</t>
+  </si>
+  <si>
     <t>14,16,15,2003</t>
   </si>
   <si>
     <t>60,40,80,2</t>
   </si>
   <si>
+    <t>3,6,9,0</t>
+  </si>
+  <si>
     <t>200,120,300,4</t>
   </si>
   <si>
+    <t>4,8,12,0</t>
+  </si>
+  <si>
     <t>14,16,15,2003,2002</t>
   </si>
   <si>
     <t>600,400,800,8,5</t>
   </si>
   <si>
+    <t>5,10,15,0,0</t>
+  </si>
+  <si>
     <t>14,16,15,2003,2002,2011</t>
   </si>
   <si>
     <t>2000,1500,3000,16,10,1</t>
+  </si>
+  <si>
+    <t>6,12,18,0,0,0</t>
   </si>
   <si>
     <t>Name</t>
@@ -806,14 +827,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1140,183 +1160,200 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6"/>
+    <col min="1" max="1" width="6.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="9.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="6" customWidth="1"/>
-    <col min="7" max="16367" width="9" style="6"/>
-    <col min="16368" max="16384" width="9" style="5"/>
+    <col min="5" max="5" width="19.25" style="5" customWidth="1"/>
+    <col min="6" max="7" width="21.25" style="5" customWidth="1"/>
+    <col min="8" max="16367" width="9" style="5"/>
+    <col min="16368" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="D11" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" s="5" customFormat="1" customHeight="1" spans="3:6">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" customHeight="1" spans="3:6">
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" customHeight="1" spans="3:6">
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" customHeight="1" spans="3:6">
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" customHeight="1" spans="3:6">
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" customHeight="1" spans="3:6">
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:3">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="3:3">
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="3:3">
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="3:3">
-      <c r="C15" s="5"/>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 D4 E4 F4 D5 E5 F5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1367,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>1</v>
@@ -1385,29 +1422,29 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>1</v>
@@ -1419,49 +1456,49 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:12">
@@ -1469,7 +1506,7 @@
         <v>1000001</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -1480,11 +1517,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1501,7 +1538,7 @@
         <v>1000002</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -1512,11 +1549,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1533,7 +1570,7 @@
         <v>1000003</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -1544,11 +1581,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1565,7 +1602,7 @@
         <v>1000004</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -1576,11 +1613,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1597,7 +1634,7 @@
         <v>1000005</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>16</v>
@@ -1608,11 +1645,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1629,7 +1666,7 @@
         <v>1000006</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -1640,11 +1677,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J11">
         <v>5</v>

--- a/Excel/ExclusiveAttrConfig.xlsx
+++ b/Excel/ExclusiveAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -92,37 +92,31 @@
     <t>6,4,8</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>10,20,30</t>
   </si>
   <si>
     <t>20,15,30</t>
   </si>
   <si>
-    <t>2,4,6</t>
-  </si>
-  <si>
     <t>14,16,15,2003</t>
   </si>
   <si>
     <t>60,40,80,2</t>
   </si>
   <si>
-    <t>3,6,9,0</t>
+    <t>10,20,30,0</t>
   </si>
   <si>
     <t>200,120,300,4</t>
   </si>
   <si>
-    <t>4,8,12,0</t>
-  </si>
-  <si>
     <t>14,16,15,2003,2002</t>
   </si>
   <si>
     <t>600,400,800,8,5</t>
   </si>
   <si>
-    <t>5,10,15,0,0</t>
+    <t>10,20,30,0,0</t>
   </si>
   <si>
     <t>14,16,15,2003,2002,2011</t>
@@ -131,7 +125,7 @@
     <t>2000,1500,3000,16,10,1</t>
   </si>
   <si>
-    <t>6,12,18,0,0,0</t>
+    <t>10,20,30,0,0,0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1163,7 +1157,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelCol="6"/>
@@ -1280,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="3:7">
@@ -1291,13 +1285,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="3:7">
@@ -1308,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="3:7">
@@ -1325,13 +1319,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="3:7">
@@ -1342,13 +1336,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1404,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>1</v>
@@ -1422,13 +1416,13 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
@@ -1438,13 +1432,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>1</v>
@@ -1456,25 +1450,25 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1506,7 +1500,7 @@
         <v>1000001</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -1538,7 +1532,7 @@
         <v>1000002</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -1570,7 +1564,7 @@
         <v>1000003</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -1602,7 +1596,7 @@
         <v>1000004</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -1634,7 +1628,7 @@
         <v>1000005</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>16</v>
@@ -1666,7 +1660,7 @@
         <v>1000006</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>16</v>
